--- a/ECB_stdev_lt.xlsx
+++ b/ECB_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -130,16 +130,16 @@
         <v>43922</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0561127662658691</v>
+        <v>5.0561127662658692</v>
       </c>
       <c r="C5" s="2">
-        <v>5.007936954498291</v>
+        <v>5.0075850486755371</v>
       </c>
       <c r="D5" s="2">
         <v>5.1511406898498535</v>
       </c>
       <c r="E5" s="2">
-        <v>5.0770101547241211</v>
+        <v>5.0777764320373535</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>5.2347140312194824</v>
       </c>
       <c r="C6" s="2">
-        <v>5.183894157409668</v>
+        <v>5.1844120025634766</v>
       </c>
       <c r="D6" s="2">
         <v>5.1738119125366211</v>
       </c>
       <c r="E6" s="2">
-        <v>5.0997653007507324</v>
+        <v>5.1005840301513672</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>5.3309907913208008</v>
       </c>
       <c r="C7" s="2">
-        <v>5.2540459632873535</v>
+        <v>5.2546224594116211</v>
       </c>
       <c r="D7" s="2">
         <v>5.1854434013366699</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1147937774658203</v>
+        <v>5.1157722473144531</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>5.3025498390197754</v>
       </c>
       <c r="C8" s="2">
-        <v>5.2175145149230957</v>
+        <v>5.2204556465148926</v>
       </c>
       <c r="D8" s="2">
         <v>5.1646366119384766</v>
       </c>
       <c r="E8" s="2">
-        <v>5.0972886085510254</v>
+        <v>5.0982966423034668</v>
       </c>
     </row>
     <row r="9">
@@ -198,16 +198,16 @@
         <v>44044</v>
       </c>
       <c r="B9" s="2">
-        <v>4.8313360214233398</v>
+        <v>4.8313360214233399</v>
       </c>
       <c r="C9" s="2">
-        <v>4.7216601371765137</v>
+        <v>4.7218079566955566</v>
       </c>
       <c r="D9" s="2">
         <v>5.1804099082946777</v>
       </c>
       <c r="E9" s="2">
-        <v>5.1108522415161133</v>
+        <v>5.1115241050720215</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>5.2871694564819336</v>
       </c>
       <c r="C10" s="2">
-        <v>5.2135410308837891</v>
+        <v>5.2146205902099609</v>
       </c>
       <c r="D10" s="2">
         <v>5.1714720726013184</v>
       </c>
       <c r="E10" s="2">
-        <v>5.1041011810302734</v>
+        <v>5.1047444343566895</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>5.2552323341369629</v>
       </c>
       <c r="C11" s="2">
-        <v>5.2049646377563477</v>
+        <v>5.2069029808044434</v>
       </c>
       <c r="D11" s="2">
         <v>5.1470808982849121</v>
       </c>
       <c r="E11" s="2">
-        <v>5.0789089202880859</v>
+        <v>5.079585075378418</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>5.0189886093139648</v>
       </c>
       <c r="C12" s="2">
-        <v>4.9747514724731445</v>
+        <v>4.9759650230407715</v>
       </c>
       <c r="D12" s="2">
         <v>5.1537728309631348</v>
       </c>
       <c r="E12" s="2">
-        <v>5.088737964630127</v>
+        <v>5.0896615982055664</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>5.3065948486328125</v>
       </c>
       <c r="C13" s="2">
-        <v>5.2193613052368164</v>
+        <v>5.2173457145690918</v>
       </c>
       <c r="D13" s="2">
         <v>5.1076703071594238</v>
       </c>
       <c r="E13" s="2">
-        <v>5.0485024452209473</v>
+        <v>5.0491886138916016</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>4.975672721862793</v>
       </c>
       <c r="C14" s="2">
-        <v>4.9471774101257324</v>
+        <v>4.9465680122375488</v>
       </c>
       <c r="D14" s="2">
         <v>5.0712623596191406</v>
       </c>
       <c r="E14" s="2">
-        <v>5.0130105018615723</v>
+        <v>5.0135340690612793</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>5.0151915550231934</v>
       </c>
       <c r="C15" s="2">
-        <v>4.9571657180786133</v>
+        <v>4.9579763412475586</v>
       </c>
       <c r="D15" s="2">
         <v>5.1019768714904785</v>
       </c>
       <c r="E15" s="2">
-        <v>5.0433750152587891</v>
+        <v>5.0437273979187012</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>5.3912186622619629</v>
       </c>
       <c r="C16" s="2">
-        <v>5.3425054550170898</v>
+        <v>5.3453121185302734</v>
       </c>
       <c r="D16" s="2">
         <v>5.0802431106567383</v>
       </c>
       <c r="E16" s="2">
-        <v>5.0187845230102539</v>
+        <v>5.0189399719238281</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>4.8876276016235352</v>
       </c>
       <c r="C17" s="2">
-        <v>4.8553957939147949</v>
+        <v>4.8562002182006836</v>
       </c>
       <c r="D17" s="2">
         <v>5.0533018112182617</v>
       </c>
       <c r="E17" s="2">
-        <v>4.9938592910766602</v>
+        <v>4.9938197135925293</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>4.503664493560791</v>
       </c>
       <c r="C18" s="2">
-        <v>4.4022297859191895</v>
+        <v>4.4009160995483398</v>
       </c>
       <c r="D18" s="2">
         <v>5.0443964004516602</v>
       </c>
       <c r="E18" s="2">
-        <v>4.9899144172668457</v>
+        <v>4.9900660514831543</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>5.5636019706726074</v>
       </c>
       <c r="C19" s="2">
-        <v>5.4868226051330566</v>
+        <v>5.4863619804382324</v>
       </c>
       <c r="D19" s="2">
         <v>5.0022244453430176</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9388523101806641</v>
+        <v>4.9392166137695313</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>5.059626579284668</v>
       </c>
       <c r="C20" s="2">
-        <v>4.9836506843566895</v>
+        <v>4.9838151931762695</v>
       </c>
       <c r="D20" s="2">
         <v>5.0238499641418457</v>
       </c>
       <c r="E20" s="2">
-        <v>4.961146354675293</v>
+        <v>4.9612135887145996</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>4.776517391204834</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7504234313964844</v>
+        <v>4.749882698059082</v>
       </c>
       <c r="D21" s="2">
         <v>4.9920597076416016</v>
       </c>
       <c r="E21" s="2">
-        <v>4.92852783203125</v>
+        <v>4.9282546043395996</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>5.2264485359191895</v>
       </c>
       <c r="C22" s="2">
-        <v>5.1838598251342773</v>
+        <v>5.183560848236084</v>
       </c>
       <c r="D22" s="2">
-        <v>5.0657110214233398</v>
+        <v>5.0657110214233399</v>
       </c>
       <c r="E22" s="2">
-        <v>5.0049338340759277</v>
+        <v>5.0045895576477051</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>4.5961227416992188</v>
       </c>
       <c r="C23" s="2">
-        <v>4.4876165390014648</v>
+        <v>4.488922119140625</v>
       </c>
       <c r="D23" s="2">
         <v>5.1422371864318848</v>
       </c>
       <c r="E23" s="2">
-        <v>5.0841569900512695</v>
+        <v>5.0840868949890137</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>5.2098236083984375</v>
       </c>
       <c r="C24" s="2">
-        <v>5.157813549041748</v>
+        <v>5.1559510231018067</v>
       </c>
       <c r="D24" s="2">
         <v>5.1749086380004883</v>
       </c>
       <c r="E24" s="2">
-        <v>5.1268272399902344</v>
+        <v>5.1269669532775879</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>5.1051058769226074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.0489368438720703</v>
+        <v>5.0486807823181152</v>
       </c>
       <c r="D25" s="2">
         <v>5.3279900550842285</v>
       </c>
       <c r="E25" s="2">
-        <v>5.2853779792785645</v>
+        <v>5.2863855361938477</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>5.5504865646362305</v>
       </c>
       <c r="C26" s="2">
-        <v>5.5430493354797363</v>
+        <v>5.5432138442993164</v>
       </c>
       <c r="D26" s="2">
         <v>5.5129051208496094</v>
       </c>
       <c r="E26" s="2">
-        <v>5.4702892303466797</v>
+        <v>5.472008228302002</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>5.1924009323120117</v>
       </c>
       <c r="C27" s="2">
-        <v>5.115241527557373</v>
+        <v>5.11639404296875</v>
       </c>
       <c r="D27" s="2">
-        <v>5.630683422088623</v>
+        <v>5.6306834220886231</v>
       </c>
       <c r="E27" s="2">
-        <v>5.5863909721374512</v>
+        <v>5.5884671211242676</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>5.8576445579528809</v>
       </c>
       <c r="C28" s="2">
-        <v>5.8708539009094238</v>
+        <v>5.8722829818725586</v>
       </c>
       <c r="D28" s="2">
         <v>5.835695743560791</v>
       </c>
       <c r="E28" s="2">
-        <v>5.7982034683227539</v>
+        <v>5.8009018898010254</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>6.4373588562011719</v>
       </c>
       <c r="C29" s="2">
-        <v>6.4106078147888184</v>
+        <v>6.4185805320739746</v>
       </c>
       <c r="D29" s="2">
         <v>6.0082602500915527</v>
       </c>
       <c r="E29" s="2">
-        <v>5.9734172821044922</v>
+        <v>5.9767451286315918</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>6.4407534599304199</v>
       </c>
       <c r="C30" s="2">
-        <v>6.4146246910095215</v>
+        <v>6.4204874038696289</v>
       </c>
       <c r="D30" s="2">
         <v>6.2259507179260254</v>
       </c>
       <c r="E30" s="2">
-        <v>6.1971039772033691</v>
+        <v>6.2013759613037109</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>6.2864542007446289</v>
       </c>
       <c r="C31" s="2">
-        <v>6.2287735939025879</v>
+        <v>6.231689453125</v>
       </c>
       <c r="D31" s="2">
         <v>6.4068880081176758</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3739304542541504</v>
+        <v>6.3786988258361817</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>6.4412341117858887</v>
       </c>
       <c r="C32" s="2">
-        <v>6.3939309120178223</v>
+        <v>6.4008378982543945</v>
       </c>
       <c r="D32" s="2">
         <v>6.5773634910583496</v>
       </c>
       <c r="E32" s="2">
-        <v>6.5494489669799805</v>
+        <v>6.555152416229248</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>6.7629036903381348</v>
       </c>
       <c r="C33" s="2">
-        <v>6.7347350120544434</v>
+        <v>6.7385382652282715</v>
       </c>
       <c r="D33" s="2">
         <v>6.6679368019104004</v>
       </c>
       <c r="E33" s="2">
-        <v>6.6351418495178223</v>
+        <v>6.6410079002380371</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>7.0643215179443359</v>
       </c>
       <c r="C34" s="2">
-        <v>7.0621190071105957</v>
+        <v>7.0703573226928711</v>
       </c>
       <c r="D34" s="2">
         <v>6.7084560394287109</v>
       </c>
       <c r="E34" s="2">
-        <v>6.6800203323364258</v>
+        <v>6.685542106628418</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>7.178919792175293</v>
       </c>
       <c r="C35" s="2">
-        <v>7.134488582611084</v>
+        <v>7.1391220092773438</v>
       </c>
       <c r="D35" s="2">
         <v>6.7258601188659668</v>
       </c>
       <c r="E35" s="2">
-        <v>6.6936197280883789</v>
+        <v>6.6984057426452637</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>6.7266831398010254</v>
       </c>
       <c r="C36" s="2">
-        <v>6.6949062347412109</v>
+        <v>6.7044758796691895</v>
       </c>
       <c r="D36" s="2">
         <v>6.7896151542663574</v>
       </c>
       <c r="E36" s="2">
-        <v>6.7580990791320801</v>
+        <v>6.7625150680541992</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>6.6728005409240723</v>
       </c>
       <c r="C37" s="2">
-        <v>6.64208984375</v>
+        <v>6.6449837684631348</v>
       </c>
       <c r="D37" s="2">
         <v>6.8018803596496582</v>
       </c>
       <c r="E37" s="2">
-        <v>6.7664413452148438</v>
+        <v>6.7697925567626953</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>6.802034854888916</v>
       </c>
       <c r="C38" s="2">
-        <v>6.814516544342041</v>
+        <v>6.8193883895874023</v>
       </c>
       <c r="D38" s="2">
         <v>6.7918248176574707</v>
       </c>
       <c r="E38" s="2">
-        <v>6.749211311340332</v>
+        <v>6.7512803077697754</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>6.5973906517028809</v>
       </c>
       <c r="C39" s="2">
-        <v>6.5370173454284668</v>
+        <v>6.5362591743469238</v>
       </c>
       <c r="D39" s="2">
         <v>6.7330832481384277</v>
       </c>
       <c r="E39" s="2">
-        <v>6.6813111305236816</v>
+        <v>6.6819825172424317</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>6.8602485656738281</v>
       </c>
       <c r="C40" s="2">
-        <v>6.8090901374816895</v>
+        <v>6.8086738586425781</v>
       </c>
       <c r="D40" s="2">
-        <v>6.6376562118530273</v>
+        <v>6.6376562118530274</v>
       </c>
       <c r="E40" s="2">
-        <v>6.5856046676635742</v>
+        <v>6.5856857299804688</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>6.5516200065612793</v>
       </c>
       <c r="C41" s="2">
-        <v>6.4690079689025879</v>
+        <v>6.4663362503051758</v>
       </c>
       <c r="D41" s="2">
         <v>6.6009950637817383</v>
       </c>
       <c r="E41" s="2">
-        <v>6.5498533248901367</v>
+        <v>6.5488543510437012</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>6.6724038124084473</v>
       </c>
       <c r="C42" s="2">
-        <v>6.5796651840209961</v>
+        <v>6.571925163269043</v>
       </c>
       <c r="D42" s="2">
         <v>6.5184154510498047</v>
       </c>
       <c r="E42" s="2">
-        <v>6.4635982513427734</v>
+        <v>6.4621682167053223</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>6.535649299621582</v>
       </c>
       <c r="C43" s="2">
-        <v>6.4510188102722168</v>
+        <v>6.4466800689697266</v>
       </c>
       <c r="D43" s="2">
         <v>6.4262270927429199</v>
       </c>
       <c r="E43" s="2">
-        <v>6.3640456199645996</v>
+        <v>6.3615961074829102</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>6.3200769424438477</v>
       </c>
       <c r="C44" s="2">
-        <v>6.2731304168701172</v>
+        <v>6.2724490165710449</v>
       </c>
       <c r="D44" s="2">
         <v>6.3099102973937988</v>
       </c>
       <c r="E44" s="2">
-        <v>6.2490839958190918</v>
+        <v>6.2462024688720703</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>6.3967313766479492</v>
       </c>
       <c r="C45" s="2">
-        <v>6.3731446266174316</v>
+        <v>6.3729934692382813</v>
       </c>
       <c r="D45" s="2">
         <v>6.1550860404968262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0950798988342285</v>
+        <v>6.0920729637145996</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>5.9295821189880371</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8657922744750977</v>
+        <v>5.8648076057434082</v>
       </c>
       <c r="D46" s="2">
         <v>6.0590648651123047</v>
       </c>
       <c r="E46" s="2">
-        <v>6.0048227310180664</v>
+        <v>6.002082347869873</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>5.9723429679870605</v>
       </c>
       <c r="C47" s="2">
-        <v>5.9185423851013184</v>
+        <v>5.9142417907714844</v>
       </c>
       <c r="D47" s="2">
         <v>5.9663729667663574</v>
       </c>
       <c r="E47" s="2">
-        <v>5.9122118949890137</v>
+        <v>5.9098701477050781</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>5.5505385398864746</v>
       </c>
       <c r="C48" s="2">
-        <v>5.5023622512817383</v>
+        <v>5.4977145195007324</v>
       </c>
       <c r="D48" s="2">
         <v>5.9031972885131836</v>
       </c>
       <c r="E48" s="2">
-        <v>5.8520827293395996</v>
+        <v>5.8499789237976074</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>5.466829776763916</v>
       </c>
       <c r="C49" s="2">
-        <v>5.4230537414550781</v>
+        <v>5.4215083122253418</v>
       </c>
       <c r="D49" s="2">
-        <v>5.8510870933532715</v>
+        <v>5.8723864555358887</v>
       </c>
       <c r="E49" s="2">
-        <v>5.7994518280029297</v>
+        <v>5.8146100044250488</v>
       </c>
     </row>
     <row r="50">
@@ -895,16 +895,16 @@
         <v>45292</v>
       </c>
       <c r="B50" s="2">
-        <v>5.6874308586120605</v>
+        <v>5.6874308586120606</v>
       </c>
       <c r="C50" s="2">
-        <v>5.6566958427429199</v>
+        <v>5.6564207077026367</v>
       </c>
       <c r="D50" s="2">
-        <v>5.7731380462646484</v>
+        <v>5.7986288070678711</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7174954414367676</v>
+        <v>5.7299957275390625</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>5.8381743431091309</v>
       </c>
       <c r="C51" s="2">
-        <v>5.7461671829223633</v>
+        <v>5.7420144081115723</v>
       </c>
       <c r="D51" s="2">
-        <v>5.7470641136169434</v>
+        <v>5.804379940032959</v>
       </c>
       <c r="E51" s="2">
-        <v>5.692779541015625</v>
+        <v>5.7315816879272461</v>
       </c>
     </row>
     <row r="52">
@@ -932,14 +932,83 @@
         <v>5.9670672416687012</v>
       </c>
       <c r="C52" s="2">
-        <v>5.9098553657531738</v>
+        <v>5.9076604843139648</v>
       </c>
       <c r="D52" s="2">
-        <v>5.7020082473754883</v>
+        <v>5.7833847999572754</v>
       </c>
       <c r="E52" s="2">
-        <v>5.6476268768310547</v>
-      </c>
+        <v>5.7087492942810059</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6.0427818298339844</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5.9541287422180176</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.8166484832763672</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5.7388973236083984</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.7329096794128418</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5.6114654541015625</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5.8749513626098633</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.7917952537536621</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.9813456535339355</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5.8790826797485352</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5.9124555587768555</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5.8188705444335938</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_stdev_lt.xlsx
+++ b/ECB_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -130,16 +130,16 @@
         <v>43922</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0561127662658692</v>
+        <v>5.0561127662658691</v>
       </c>
       <c r="C5" s="2">
-        <v>5.0075850486755371</v>
+        <v>5.0083060264587402</v>
       </c>
       <c r="D5" s="2">
         <v>5.1511406898498535</v>
       </c>
       <c r="E5" s="2">
-        <v>5.0777764320373535</v>
+        <v>5.0762591361999512</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>5.2347140312194824</v>
       </c>
       <c r="C6" s="2">
-        <v>5.1844120025634766</v>
+        <v>5.180595874786377</v>
       </c>
       <c r="D6" s="2">
         <v>5.1738119125366211</v>
       </c>
       <c r="E6" s="2">
-        <v>5.1005840301513672</v>
+        <v>5.0988507270812988</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>5.3309907913208008</v>
       </c>
       <c r="C7" s="2">
-        <v>5.2546224594116211</v>
+        <v>5.2569370269775391</v>
       </c>
       <c r="D7" s="2">
         <v>5.1854434013366699</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1157722473144531</v>
+        <v>5.1142368316650391</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>5.3025498390197754</v>
       </c>
       <c r="C8" s="2">
-        <v>5.2204556465148926</v>
+        <v>5.2174882888793945</v>
       </c>
       <c r="D8" s="2">
         <v>5.1646366119384766</v>
       </c>
       <c r="E8" s="2">
-        <v>5.0982966423034668</v>
+        <v>5.0969171524047852</v>
       </c>
     </row>
     <row r="9">
@@ -198,16 +198,16 @@
         <v>44044</v>
       </c>
       <c r="B9" s="2">
-        <v>4.8313360214233399</v>
+        <v>4.8313360214233398</v>
       </c>
       <c r="C9" s="2">
-        <v>4.7218079566955566</v>
+        <v>4.7179679870605469</v>
       </c>
       <c r="D9" s="2">
         <v>5.1804099082946777</v>
       </c>
       <c r="E9" s="2">
-        <v>5.1115241050720215</v>
+        <v>5.1106996536254883</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>5.2871694564819336</v>
       </c>
       <c r="C10" s="2">
-        <v>5.2146205902099609</v>
+        <v>5.2118101119995117</v>
       </c>
       <c r="D10" s="2">
         <v>5.1714720726013184</v>
       </c>
       <c r="E10" s="2">
-        <v>5.1047444343566895</v>
+        <v>5.1036257743835449</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>5.2552323341369629</v>
       </c>
       <c r="C11" s="2">
-        <v>5.2069029808044434</v>
+        <v>5.2065525054931641</v>
       </c>
       <c r="D11" s="2">
         <v>5.1470808982849121</v>
       </c>
       <c r="E11" s="2">
-        <v>5.079585075378418</v>
+        <v>5.0792875289916992</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>5.0189886093139648</v>
       </c>
       <c r="C12" s="2">
-        <v>4.9759650230407715</v>
+        <v>4.9756793975830078</v>
       </c>
       <c r="D12" s="2">
         <v>5.1537728309631348</v>
       </c>
       <c r="E12" s="2">
-        <v>5.0896615982055664</v>
+        <v>5.0889816284179688</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>5.3065948486328125</v>
       </c>
       <c r="C13" s="2">
-        <v>5.2173457145690918</v>
+        <v>5.2209606170654297</v>
       </c>
       <c r="D13" s="2">
         <v>5.1076703071594238</v>
       </c>
       <c r="E13" s="2">
-        <v>5.0491886138916016</v>
+        <v>5.0488548278808594</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>4.975672721862793</v>
       </c>
       <c r="C14" s="2">
-        <v>4.9465680122375488</v>
+        <v>4.944638729095459</v>
       </c>
       <c r="D14" s="2">
         <v>5.0712623596191406</v>
       </c>
       <c r="E14" s="2">
-        <v>5.0135340690612793</v>
+        <v>5.0137906074523926</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>5.0151915550231934</v>
       </c>
       <c r="C15" s="2">
-        <v>4.9579763412475586</v>
+        <v>4.9615521430969238</v>
       </c>
       <c r="D15" s="2">
         <v>5.1019768714904785</v>
       </c>
       <c r="E15" s="2">
-        <v>5.0437273979187012</v>
+        <v>5.0443763732910156</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>5.3912186622619629</v>
       </c>
       <c r="C16" s="2">
-        <v>5.3453121185302734</v>
+        <v>5.3441829681396484</v>
       </c>
       <c r="D16" s="2">
         <v>5.0802431106567383</v>
       </c>
       <c r="E16" s="2">
-        <v>5.0189399719238281</v>
+        <v>5.0197534561157227</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>4.8876276016235352</v>
       </c>
       <c r="C17" s="2">
-        <v>4.8562002182006836</v>
+        <v>4.8563470840454102</v>
       </c>
       <c r="D17" s="2">
         <v>5.0533018112182617</v>
       </c>
       <c r="E17" s="2">
-        <v>4.9938197135925293</v>
+        <v>4.994544506072998</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>4.503664493560791</v>
       </c>
       <c r="C18" s="2">
-        <v>4.4009160995483398</v>
+        <v>4.4023919105529785</v>
       </c>
       <c r="D18" s="2">
         <v>5.0443964004516602</v>
       </c>
       <c r="E18" s="2">
-        <v>4.9900660514831543</v>
+        <v>4.9905996322631836</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>5.5636019706726074</v>
       </c>
       <c r="C19" s="2">
-        <v>5.4863619804382324</v>
+        <v>5.4870815277099609</v>
       </c>
       <c r="D19" s="2">
         <v>5.0022244453430176</v>
       </c>
       <c r="E19" s="2">
-        <v>4.9392166137695313</v>
+        <v>4.9392385482788086</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>5.059626579284668</v>
       </c>
       <c r="C20" s="2">
-        <v>4.9838151931762695</v>
+        <v>4.9849457740783691</v>
       </c>
       <c r="D20" s="2">
         <v>5.0238499641418457</v>
       </c>
       <c r="E20" s="2">
-        <v>4.9612135887145996</v>
+        <v>4.9605741500854492</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>4.776517391204834</v>
       </c>
       <c r="C21" s="2">
-        <v>4.749882698059082</v>
+        <v>4.7488002777099609</v>
       </c>
       <c r="D21" s="2">
         <v>4.9920597076416016</v>
       </c>
       <c r="E21" s="2">
-        <v>4.9282546043395996</v>
+        <v>4.9281167984008789</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>5.2264485359191895</v>
       </c>
       <c r="C22" s="2">
-        <v>5.183560848236084</v>
+        <v>5.185457706451416</v>
       </c>
       <c r="D22" s="2">
-        <v>5.0657110214233399</v>
+        <v>5.0657110214233398</v>
       </c>
       <c r="E22" s="2">
-        <v>5.0045895576477051</v>
+        <v>5.0045766830444336</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>4.5961227416992188</v>
       </c>
       <c r="C23" s="2">
-        <v>4.488922119140625</v>
+        <v>4.4823884963989258</v>
       </c>
       <c r="D23" s="2">
         <v>5.1422371864318848</v>
       </c>
       <c r="E23" s="2">
-        <v>5.0840868949890137</v>
+        <v>5.0837841033935547</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>5.2098236083984375</v>
       </c>
       <c r="C24" s="2">
-        <v>5.1559510231018067</v>
+        <v>5.1535735130310059</v>
       </c>
       <c r="D24" s="2">
         <v>5.1749086380004883</v>
       </c>
       <c r="E24" s="2">
-        <v>5.1269669532775879</v>
+        <v>5.1259121894836426</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>5.1051058769226074</v>
       </c>
       <c r="C25" s="2">
-        <v>5.0486807823181152</v>
+        <v>5.0520658493041992</v>
       </c>
       <c r="D25" s="2">
         <v>5.3279900550842285</v>
       </c>
       <c r="E25" s="2">
-        <v>5.2863855361938477</v>
+        <v>5.2856388092041016</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>5.5504865646362305</v>
       </c>
       <c r="C26" s="2">
-        <v>5.5432138442993164</v>
+        <v>5.5444831848144531</v>
       </c>
       <c r="D26" s="2">
         <v>5.5129051208496094</v>
       </c>
       <c r="E26" s="2">
-        <v>5.472008228302002</v>
+        <v>5.4715142250061035</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>5.1924009323120117</v>
       </c>
       <c r="C27" s="2">
-        <v>5.11639404296875</v>
+        <v>5.1152591705322266</v>
       </c>
       <c r="D27" s="2">
-        <v>5.6306834220886231</v>
+        <v>5.630683422088623</v>
       </c>
       <c r="E27" s="2">
-        <v>5.5884671211242676</v>
+        <v>5.5879006385803223</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>5.8576445579528809</v>
       </c>
       <c r="C28" s="2">
-        <v>5.8722829818725586</v>
+        <v>5.8662357330322266</v>
       </c>
       <c r="D28" s="2">
         <v>5.835695743560791</v>
       </c>
       <c r="E28" s="2">
-        <v>5.8009018898010254</v>
+        <v>5.8015623092651367</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>6.4373588562011719</v>
       </c>
       <c r="C29" s="2">
-        <v>6.4185805320739746</v>
+        <v>6.4224839210510254</v>
       </c>
       <c r="D29" s="2">
         <v>6.0082602500915527</v>
       </c>
       <c r="E29" s="2">
-        <v>5.9767451286315918</v>
+        <v>5.9782395362854004</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>6.4407534599304199</v>
       </c>
       <c r="C30" s="2">
-        <v>6.4204874038696289</v>
+        <v>6.4216823577880859</v>
       </c>
       <c r="D30" s="2">
         <v>6.2259507179260254</v>
       </c>
       <c r="E30" s="2">
-        <v>6.2013759613037109</v>
+        <v>6.2029051780700684</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>6.2864542007446289</v>
       </c>
       <c r="C31" s="2">
-        <v>6.231689453125</v>
+        <v>6.2329339981079102</v>
       </c>
       <c r="D31" s="2">
         <v>6.4068880081176758</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3786988258361817</v>
+        <v>6.3807382583618164</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>6.4412341117858887</v>
       </c>
       <c r="C32" s="2">
-        <v>6.4008378982543945</v>
+        <v>6.4053440093994141</v>
       </c>
       <c r="D32" s="2">
         <v>6.5773634910583496</v>
       </c>
       <c r="E32" s="2">
-        <v>6.555152416229248</v>
+        <v>6.557830810546875</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>6.7629036903381348</v>
       </c>
       <c r="C33" s="2">
-        <v>6.7385382652282715</v>
+        <v>6.7436680793762207</v>
       </c>
       <c r="D33" s="2">
         <v>6.6679368019104004</v>
       </c>
       <c r="E33" s="2">
-        <v>6.6410079002380371</v>
+        <v>6.6444807052612305</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>7.0643215179443359</v>
       </c>
       <c r="C34" s="2">
-        <v>7.0703573226928711</v>
+        <v>7.0740551948547363</v>
       </c>
       <c r="D34" s="2">
         <v>6.7084560394287109</v>
       </c>
       <c r="E34" s="2">
-        <v>6.685542106628418</v>
+        <v>6.689420223236084</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>7.178919792175293</v>
       </c>
       <c r="C35" s="2">
-        <v>7.1391220092773438</v>
+        <v>7.1449832916259766</v>
       </c>
       <c r="D35" s="2">
         <v>6.7258601188659668</v>
       </c>
       <c r="E35" s="2">
-        <v>6.6984057426452637</v>
+        <v>6.7020959854125977</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>6.7266831398010254</v>
       </c>
       <c r="C36" s="2">
-        <v>6.7044758796691895</v>
+        <v>6.7090897560119629</v>
       </c>
       <c r="D36" s="2">
         <v>6.7896151542663574</v>
       </c>
       <c r="E36" s="2">
-        <v>6.7625150680541992</v>
+        <v>6.7660746574401855</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>6.6728005409240723</v>
       </c>
       <c r="C37" s="2">
-        <v>6.6449837684631348</v>
+        <v>6.6460857391357422</v>
       </c>
       <c r="D37" s="2">
         <v>6.8018803596496582</v>
       </c>
       <c r="E37" s="2">
-        <v>6.7697925567626953</v>
+        <v>6.7728581428527832</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>6.802034854888916</v>
       </c>
       <c r="C38" s="2">
-        <v>6.8193883895874023</v>
+        <v>6.8269381523132324</v>
       </c>
       <c r="D38" s="2">
         <v>6.7918248176574707</v>
       </c>
       <c r="E38" s="2">
-        <v>6.7512803077697754</v>
+        <v>6.7536067962646484</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>6.5973906517028809</v>
       </c>
       <c r="C39" s="2">
-        <v>6.5362591743469238</v>
+        <v>6.5357670783996582</v>
       </c>
       <c r="D39" s="2">
         <v>6.7330832481384277</v>
       </c>
       <c r="E39" s="2">
-        <v>6.6819825172424317</v>
+        <v>6.6841130256652832</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>6.8602485656738281</v>
       </c>
       <c r="C40" s="2">
-        <v>6.8086738586425781</v>
+        <v>6.8087425231933594</v>
       </c>
       <c r="D40" s="2">
-        <v>6.6376562118530274</v>
+        <v>6.6376562118530273</v>
       </c>
       <c r="E40" s="2">
-        <v>6.5856857299804688</v>
+        <v>6.587486743927002</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>6.5516200065612793</v>
       </c>
       <c r="C41" s="2">
-        <v>6.4663362503051758</v>
+        <v>6.4663949012756348</v>
       </c>
       <c r="D41" s="2">
         <v>6.6009950637817383</v>
       </c>
       <c r="E41" s="2">
-        <v>6.5488543510437012</v>
+        <v>6.5504288673400879</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>6.6724038124084473</v>
       </c>
       <c r="C42" s="2">
-        <v>6.571925163269043</v>
+        <v>6.5704026222229004</v>
       </c>
       <c r="D42" s="2">
         <v>6.5184154510498047</v>
       </c>
       <c r="E42" s="2">
-        <v>6.4621682167053223</v>
+        <v>6.463472843170166</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>6.535649299621582</v>
       </c>
       <c r="C43" s="2">
-        <v>6.4466800689697266</v>
+        <v>6.4486150741577148</v>
       </c>
       <c r="D43" s="2">
         <v>6.4262270927429199</v>
       </c>
       <c r="E43" s="2">
-        <v>6.3615961074829102</v>
+        <v>6.3613138198852539</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>6.3200769424438477</v>
       </c>
       <c r="C44" s="2">
-        <v>6.2724490165710449</v>
+        <v>6.2753458023071289</v>
       </c>
       <c r="D44" s="2">
         <v>6.3099102973937988</v>
       </c>
       <c r="E44" s="2">
-        <v>6.2462024688720703</v>
+        <v>6.2453608512878418</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>6.3967313766479492</v>
       </c>
       <c r="C45" s="2">
-        <v>6.3729934692382813</v>
+        <v>6.3755683898925781</v>
       </c>
       <c r="D45" s="2">
         <v>6.1550860404968262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0920729637145996</v>
+        <v>6.0911006927490234</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>5.9295821189880371</v>
       </c>
       <c r="C46" s="2">
-        <v>5.8648076057434082</v>
+        <v>5.8634829521179199</v>
       </c>
       <c r="D46" s="2">
         <v>6.0590648651123047</v>
       </c>
       <c r="E46" s="2">
-        <v>6.002082347869873</v>
+        <v>6.001129150390625</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>5.9723429679870605</v>
       </c>
       <c r="C47" s="2">
-        <v>5.9142417907714844</v>
+        <v>5.9075040817260742</v>
       </c>
       <c r="D47" s="2">
         <v>5.9663729667663574</v>
       </c>
       <c r="E47" s="2">
-        <v>5.9098701477050781</v>
+        <v>5.9087715148925781</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>5.5505385398864746</v>
       </c>
       <c r="C48" s="2">
-        <v>5.4977145195007324</v>
+        <v>5.492192268371582</v>
       </c>
       <c r="D48" s="2">
         <v>5.9031972885131836</v>
       </c>
       <c r="E48" s="2">
-        <v>5.8499789237976074</v>
+        <v>5.8488078117370605</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>5.466829776763916</v>
       </c>
       <c r="C49" s="2">
-        <v>5.4215083122253418</v>
+        <v>5.4204001426696777</v>
       </c>
       <c r="D49" s="2">
         <v>5.8723864555358887</v>
       </c>
       <c r="E49" s="2">
-        <v>5.8146100044250488</v>
+        <v>5.8128242492675781</v>
       </c>
     </row>
     <row r="50">
@@ -895,16 +895,16 @@
         <v>45292</v>
       </c>
       <c r="B50" s="2">
-        <v>5.6874308586120606</v>
+        <v>5.6874308586120605</v>
       </c>
       <c r="C50" s="2">
-        <v>5.6564207077026367</v>
+        <v>5.6566510200500488</v>
       </c>
       <c r="D50" s="2">
         <v>5.7986288070678711</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7299957275390625</v>
+        <v>5.7273802757263184</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>5.8381743431091309</v>
       </c>
       <c r="C51" s="2">
-        <v>5.7420144081115723</v>
+        <v>5.7391834259033203</v>
       </c>
       <c r="D51" s="2">
         <v>5.804379940032959</v>
       </c>
       <c r="E51" s="2">
-        <v>5.7315816879272461</v>
+        <v>5.7291460037231445</v>
       </c>
     </row>
     <row r="52">
@@ -932,13 +932,13 @@
         <v>5.9670672416687012</v>
       </c>
       <c r="C52" s="2">
-        <v>5.9076604843139648</v>
+        <v>5.9089431762695312</v>
       </c>
       <c r="D52" s="2">
-        <v>5.7833847999572754</v>
+        <v>5.755403995513916</v>
       </c>
       <c r="E52" s="2">
-        <v>5.7087492942810059</v>
+        <v>5.6727848052978516</v>
       </c>
     </row>
     <row r="53">
@@ -949,13 +949,13 @@
         <v>6.0427818298339844</v>
       </c>
       <c r="C53" s="2">
-        <v>5.9541287422180176</v>
+        <v>5.9514932632446289</v>
       </c>
       <c r="D53" s="2">
-        <v>5.8166484832763672</v>
+        <v>5.7368502616882324</v>
       </c>
       <c r="E53" s="2">
-        <v>5.7388973236083984</v>
+        <v>5.6481046676635742</v>
       </c>
     </row>
     <row r="54">
@@ -966,13 +966,13 @@
         <v>5.7329096794128418</v>
       </c>
       <c r="C54" s="2">
-        <v>5.6114654541015625</v>
+        <v>5.6065735816955566</v>
       </c>
       <c r="D54" s="2">
-        <v>5.8749513626098633</v>
+        <v>5.7360215187072754</v>
       </c>
       <c r="E54" s="2">
-        <v>5.7917952537536621</v>
+        <v>5.6395883560180664</v>
       </c>
     </row>
     <row r="55">
@@ -983,32 +983,167 @@
         <v>5.9813456535339355</v>
       </c>
       <c r="C55" s="2">
-        <v>5.8790826797485352</v>
+        <v>5.8793721199035645</v>
       </c>
       <c r="D55" s="2">
-        <v>5.9124555587768555</v>
+        <v>5.7184667587280273</v>
       </c>
       <c r="E55" s="2">
-        <v>5.8188705444335938</v>
+        <v>5.614771842956543</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>45474</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="2">
+        <v>5.5315570831298828</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5.4002552032470703</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5.6665811538696289</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5.5613002777099609</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2">
+        <v>5.3835568428039551</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5.2700705528259277</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5.5828619003295898</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.4797205924987793</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.4593696594238281</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5.3437538146972656</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5.5301661491394043</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5.4284706115722656</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5.5294394493103027</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5.4333004951477051</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5.5471291542053223</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5.4447407722473145</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5.3712029457092285</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5.2579398155212402</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5.5099964141845703</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.4059686660766602</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.2135939598083496</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5.1747245788574219</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5.5073013305664062</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5.4066824913024902</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5.5685210227966309</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5.4902467727661133</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.5249791145324707</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.4261984825134277</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.8855748176574707</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5.7530045509338379</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5.5359139442443848</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5.4399394989013672</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5.6471514701843262</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5.5304203033447266</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5.5372090339660645</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5.4412670135498047</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_stdev_lt.xlsx
+++ b/ECB_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,6 +1145,15 @@
         <v>5.4412670135498047</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>